--- a/WorkBot/refactor/data/orders/Performance Food/Performance Food_Collegetown_2025-08-08.xlsx
+++ b/WorkBot/refactor/data/orders/Performance Food/Performance Food_Collegetown_2025-08-08.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,6 +934,60 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TN330</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Natalie's - Honey Tangerine</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TN454</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Natalie's - Orange Mango</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
